--- a/KPIDashboard/WebApplication1/App_Data/ASGDevelopmentPerformanceIndicators.XLSX
+++ b/KPIDashboard/WebApplication1/App_Data/ASGDevelopmentPerformanceIndicators.XLSX
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryma\Documents\GitHub\Current\KPIDashboard\WebApplication1\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkhan\Documents\GitHub\Current\KPIDashboard\WebApplication1\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESS_INDICATORS" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="123">
   <si>
     <t>PI_CODE_FREEZE</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Forecast</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
   <si>
     <t>Project Database</t>
@@ -457,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -688,8 +685,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Verklarende tekst" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -1024,7 +1021,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1319,12 +1316,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1329,12 @@
     <col min="1" max="4" width="0" hidden="1"/>
     <col min="5" max="5" width="36.42578125"/>
     <col min="6" max="7" width="0" style="3" hidden="1"/>
-    <col min="8" max="8" width="0" style="4" hidden="1"/>
-    <col min="9" max="11" width="0" hidden="1"/>
+    <col min="8" max="8" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" style="5"/>
-    <col min="13" max="13" width="15.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="6" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="5"/>
     <col min="16" max="16" width="23.5703125" style="6" customWidth="1"/>
@@ -1370,131 +1369,83 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="L2" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L2" s="7"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="O2" s="8"/>
       <c r="P2"/>
-      <c r="Q2" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q2" s="8"/>
       <c r="R2"/>
-      <c r="S2" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="L3" s="9">
-        <v>0.05</v>
-      </c>
+      <c r="L3" s="9"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="9">
-        <v>0.05</v>
-      </c>
+      <c r="O3" s="9"/>
       <c r="P3"/>
-      <c r="Q3" s="9">
-        <v>0.05</v>
-      </c>
+      <c r="Q3" s="9"/>
       <c r="R3"/>
-      <c r="S3" s="9">
-        <v>0.05</v>
-      </c>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="L4" s="10">
-        <v>0.15</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4" s="10">
-        <v>0.15</v>
-      </c>
+      <c r="O4" s="10"/>
       <c r="P4"/>
-      <c r="Q4" s="10">
-        <v>0.15</v>
-      </c>
+      <c r="Q4" s="10"/>
       <c r="R4"/>
-      <c r="S4" s="10">
-        <v>0.15</v>
-      </c>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="L5" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="O5" s="11"/>
       <c r="P5"/>
-      <c r="Q5" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="Q5" s="11"/>
       <c r="R5"/>
-      <c r="S5" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="L6" s="12">
-        <v>0.4</v>
-      </c>
+      <c r="L6" s="12"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6" s="12">
-        <v>0.4</v>
-      </c>
+      <c r="O6" s="12"/>
       <c r="P6"/>
-      <c r="Q6" s="12">
-        <v>0.4</v>
-      </c>
+      <c r="Q6" s="12"/>
       <c r="R6"/>
-      <c r="S6" s="12">
-        <v>0.4</v>
-      </c>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
+      <c r="O7" s="13"/>
       <c r="P7"/>
-      <c r="Q7" s="13">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="13"/>
       <c r="R7"/>
-      <c r="S7" s="13">
-        <v>1</v>
-      </c>
+      <c r="S7" s="13"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F9" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9"/>
@@ -1503,7 +1454,7 @@
       </c>
       <c r="L9"/>
       <c r="M9" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
@@ -1535,40 +1486,40 @@
         <v>9</v>
       </c>
       <c r="H10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="M10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="N10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="O10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="P10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="Q10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="R10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="S10" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="S10" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1581,13 +1532,13 @@
         <v/>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="3">
         <f>G11-16</f>
@@ -1649,13 +1600,13 @@
         <v/>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3">
         <f>G12-14</f>
@@ -1680,24 +1631,24 @@
         <v>#NAME?</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="23" t="e">
         <f t="shared" si="6"/>
@@ -1714,13 +1665,13 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="3">
         <f>G13-25</f>
@@ -1782,13 +1733,13 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
         <f>G14-14</f>
@@ -1813,24 +1764,24 @@
         <v>0</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" s="23" t="e">
         <f t="shared" si="6"/>
@@ -1847,13 +1798,13 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="3">
         <f>G15-45</f>
@@ -1914,13 +1865,13 @@
         <v/>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3">
         <f>G16-30</f>
@@ -1982,13 +1933,13 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3">
         <f>G17-30</f>
@@ -2050,13 +2001,13 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ref="F18:F31" si="7">G18-14</f>
@@ -2081,24 +2032,24 @@
         <v>0</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S18" s="23" t="e">
         <f t="shared" si="6"/>
@@ -2115,13 +2066,13 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="7"/>
@@ -2146,24 +2097,24 @@
         <v>0</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O19" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S19" s="23" t="e">
         <f t="shared" si="6"/>
@@ -2180,13 +2131,13 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="7"/>
@@ -2211,31 +2162,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O20" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S20" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2245,13 +2196,13 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="7"/>
@@ -2303,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2313,13 +2264,13 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="7"/>
@@ -2344,31 +2295,31 @@
         <v>0</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S22" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2378,13 +2329,13 @@
         <v/>
       </c>
       <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
@@ -2428,7 +2379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2438,13 +2389,13 @@
         <v/>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="7"/>
@@ -2488,7 +2439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2498,13 +2449,13 @@
         <v/>
       </c>
       <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="7"/>
@@ -2558,13 +2509,13 @@
         <v/>
       </c>
       <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="7"/>
@@ -2624,13 +2575,13 @@
         <v/>
       </c>
       <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="7"/>
@@ -2680,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2690,13 +2641,13 @@
         <v/>
       </c>
       <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="7"/>
@@ -2756,13 +2707,13 @@
         <v/>
       </c>
       <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="7"/>
@@ -2822,13 +2773,13 @@
         <v/>
       </c>
       <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="7"/>
@@ -2875,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2885,13 +2836,13 @@
         <v>forecast</v>
       </c>
       <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="7"/>
@@ -2932,7 +2883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2942,13 +2893,13 @@
         <v/>
       </c>
       <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -2978,7 +2929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2988,13 +2939,13 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ref="F33:F38" si="8">G33-14</f>
@@ -3032,7 +2983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3042,13 +2993,13 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="8"/>
@@ -3086,7 +3037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3096,13 +3047,13 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="8"/>
@@ -3140,7 +3091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3150,13 +3101,13 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="8"/>
@@ -3204,13 +3155,13 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="8"/>
@@ -3272,13 +3223,13 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="8"/>
@@ -3330,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3340,13 +3291,13 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="3">
         <f>G39-28</f>
@@ -3395,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3405,13 +3356,13 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F40" s="3">
         <f>G40-14</f>
@@ -3449,7 +3400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3459,13 +3410,13 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="3">
         <f>G41-14</f>
@@ -3503,7 +3454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3513,13 +3464,13 @@
         <v/>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="3">
         <f>G42-14</f>
@@ -3567,13 +3518,13 @@
         <v/>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" s="3">
         <f>G43-14</f>
@@ -3635,13 +3586,13 @@
         <v/>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="3">
         <f>G44-70</f>
@@ -3703,13 +3654,13 @@
         <v/>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="3">
         <f>G45-28</f>
@@ -3768,13 +3719,13 @@
         <v/>
       </c>
       <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
         <v>72</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" ref="F46:F57" si="14">G46-14</f>
@@ -3836,13 +3787,13 @@
         <v/>
       </c>
       <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="14"/>
@@ -3904,13 +3855,13 @@
         <v/>
       </c>
       <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="14"/>
@@ -3972,13 +3923,13 @@
         <v/>
       </c>
       <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="14"/>
@@ -4040,13 +3991,13 @@
         <v/>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="14"/>
@@ -4097,7 +4048,7 @@
         <v>0.91304347826086962</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -4107,13 +4058,13 @@
         <v/>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="14"/>
@@ -4140,24 +4091,24 @@
         <v>0</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O51" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q51" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="R51" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S51" s="23" t="e">
         <f t="shared" si="13"/>
@@ -4174,13 +4125,13 @@
         <v/>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="14"/>
@@ -4241,13 +4192,13 @@
         <v/>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="14"/>
@@ -4308,13 +4259,13 @@
         <v/>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="14"/>
@@ -4366,7 +4317,7 @@
         <v>0.90476190476190477</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -4375,13 +4326,13 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="14"/>
@@ -4432,7 +4383,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -4442,13 +4393,13 @@
         <v/>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="14"/>
@@ -4476,24 +4427,24 @@
         <v>0</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O56" s="23" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="R56" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S56" s="23" t="e">
         <f t="shared" si="13"/>
@@ -4510,13 +4461,13 @@
         <v/>
       </c>
       <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
         <v>88</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="14"/>
@@ -4561,13 +4512,13 @@
         <v/>
       </c>
       <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
         <v>88</v>
       </c>
-      <c r="D58" t="s">
-        <v>89</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -4604,13 +4555,13 @@
         <v/>
       </c>
       <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
         <v>88</v>
       </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" ref="F59:F70" si="17">G59-14</f>
@@ -4655,13 +4606,13 @@
         <v/>
       </c>
       <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
         <v>88</v>
       </c>
-      <c r="D60" t="s">
-        <v>89</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="17"/>
@@ -4706,13 +4657,13 @@
         <v/>
       </c>
       <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="17"/>
@@ -4757,13 +4708,13 @@
         <v>forecast</v>
       </c>
       <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
         <v>88</v>
       </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="17"/>
@@ -4808,13 +4759,13 @@
         <v/>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="17"/>
@@ -4859,13 +4810,13 @@
         <v/>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="17"/>
@@ -4910,13 +4861,13 @@
         <v/>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="17"/>
@@ -4961,13 +4912,13 @@
         <v>forecast</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="17"/>
@@ -5012,13 +4963,13 @@
         <v/>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="17"/>
@@ -5063,13 +5014,13 @@
         <v/>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="17"/>
@@ -5114,13 +5065,13 @@
         <v/>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="17"/>
@@ -5155,7 +5106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5165,13 +5116,13 @@
         <v/>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="17"/>
@@ -5206,7 +5157,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5216,13 +5167,13 @@
         <v/>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
@@ -5249,7 +5200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5259,13 +5210,13 @@
         <v/>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -5292,7 +5243,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5302,13 +5253,13 @@
         <v/>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" ref="F73:F84" si="19">G73-14</f>
@@ -5343,7 +5294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5353,13 +5304,13 @@
         <v/>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="19"/>
@@ -5394,7 +5345,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5404,13 +5355,13 @@
         <v/>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="19"/>
@@ -5445,7 +5396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5455,13 +5406,13 @@
         <v/>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="19"/>
@@ -5496,7 +5447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5506,13 +5457,13 @@
         <v/>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="19"/>
@@ -5547,7 +5498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5557,13 +5508,13 @@
         <v/>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="19"/>
@@ -5598,7 +5549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5608,13 +5559,13 @@
         <v/>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="19"/>
@@ -5649,7 +5600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5659,13 +5610,13 @@
         <v/>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="19"/>
@@ -5700,7 +5651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5710,13 +5661,13 @@
         <v>forecast</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="19"/>
@@ -5751,7 +5702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5761,13 +5712,13 @@
         <v>forecast</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="19"/>
@@ -5802,7 +5753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5812,13 +5763,13 @@
         <v>forecast</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="19"/>
@@ -5853,7 +5804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5863,13 +5814,13 @@
         <v>forecast</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="19"/>
@@ -5904,7 +5855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -5914,13 +5865,13 @@
         <v/>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K85" s="22">
         <f t="shared" si="16"/>
@@ -5945,7 +5896,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A10:S85" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A10:S85">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
